--- a/media/Levels/Stage05/RightWallMap.xlsx
+++ b/media/Levels/Stage05/RightWallMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\Desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuta\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\2024年３月特別授業\BaseCross64\LoadOut\media\Levels\Stage05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75992ECC-1F79-4C02-8651-D4AD5BD25E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6483681-62FE-4E34-BAD3-2C8577DB7DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1560" windowWidth="17280" windowHeight="8880" xr2:uid="{9AB8AF74-5F48-49AB-9F6A-8D112309645F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AB8AF74-5F48-49AB-9F6A-8D112309645F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
